--- a/ISO286doc/Tolerance_Class_hole _NVM.xlsx
+++ b/ISO286doc/Tolerance_Class_hole _NVM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raoul\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\TI-84\ISO286doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDDA82F-EA63-43A4-A8B6-AAC9AE20FB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD6B167-F4A0-4980-A266-2539431DA801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19500" yWindow="8055" windowWidth="18900" windowHeight="11130" xr2:uid="{E33F5EEC-6233-4A35-930A-5557629D104B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E33F5EEC-6233-4A35-930A-5557629D104B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AF6B86-C607-473E-85B3-01259DC4C231}">
   <dimension ref="A1:AL86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1169,7 @@
         <v>-12</v>
       </c>
       <c r="S7" s="11">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="T7" s="11"/>
       <c r="U7" s="7"/>
@@ -1246,7 +1246,7 @@
         <v>-15</v>
       </c>
       <c r="S8" s="11">
-        <v>-13</v>
+        <v>-19</v>
       </c>
       <c r="T8" s="11"/>
       <c r="U8" s="7"/>
@@ -1323,7 +1323,7 @@
         <v>-18</v>
       </c>
       <c r="S9" s="11">
-        <v>-16</v>
+        <v>-23</v>
       </c>
       <c r="T9" s="11"/>
       <c r="U9" s="7"/>
@@ -1400,7 +1400,7 @@
         <v>-22</v>
       </c>
       <c r="S10" s="11">
-        <v>-20</v>
+        <v>-28</v>
       </c>
       <c r="T10" s="11"/>
       <c r="U10" s="7"/>
@@ -1477,7 +1477,7 @@
         <v>-26</v>
       </c>
       <c r="S11" s="11">
-        <v>-25</v>
+        <v>-34</v>
       </c>
       <c r="T11" s="11"/>
       <c r="U11" s="7"/>
@@ -1554,7 +1554,7 @@
         <v>-32</v>
       </c>
       <c r="S12" s="11">
-        <v>-30</v>
+        <v>-41</v>
       </c>
       <c r="T12" s="11"/>
       <c r="U12" s="7"/>
@@ -1631,7 +1631,7 @@
         <v>-32</v>
       </c>
       <c r="S13" s="11">
-        <v>-32</v>
+        <v>-43</v>
       </c>
       <c r="T13" s="11"/>
       <c r="U13" s="7"/>
@@ -1708,7 +1708,7 @@
         <v>-37</v>
       </c>
       <c r="S14" s="11">
-        <v>-38</v>
+        <v>-51</v>
       </c>
       <c r="T14" s="11"/>
       <c r="U14" s="7"/>
@@ -1785,7 +1785,7 @@
         <v>-37</v>
       </c>
       <c r="S15" s="11">
-        <v>-41</v>
+        <v>-54</v>
       </c>
       <c r="T15" s="11"/>
       <c r="U15" s="7"/>
@@ -1862,7 +1862,7 @@
         <v>-43</v>
       </c>
       <c r="S16" s="11">
-        <v>-48</v>
+        <v>-63</v>
       </c>
       <c r="T16" s="11"/>
       <c r="U16" s="7"/>
@@ -1939,7 +1939,7 @@
         <v>-43</v>
       </c>
       <c r="S17" s="11">
-        <v>-50</v>
+        <v>-65</v>
       </c>
       <c r="T17" s="11"/>
       <c r="U17" s="7"/>
@@ -2016,7 +2016,7 @@
         <v>-43</v>
       </c>
       <c r="S18" s="11">
-        <v>-53</v>
+        <v>-68</v>
       </c>
       <c r="T18" s="11"/>
       <c r="U18" s="7"/>
@@ -2093,7 +2093,7 @@
         <v>-50</v>
       </c>
       <c r="S19" s="11">
-        <v>-60</v>
+        <v>-77</v>
       </c>
       <c r="T19" s="11"/>
       <c r="U19" s="7"/>
@@ -2170,7 +2170,7 @@
         <v>-50</v>
       </c>
       <c r="S20" s="11">
-        <v>-63</v>
+        <v>-80</v>
       </c>
       <c r="T20" s="11"/>
       <c r="U20" s="7"/>
@@ -2247,7 +2247,7 @@
         <v>-50</v>
       </c>
       <c r="S21" s="11">
-        <v>-67</v>
+        <v>-84</v>
       </c>
       <c r="T21" s="11"/>
       <c r="U21" s="7"/>
@@ -2324,7 +2324,7 @@
         <v>-53</v>
       </c>
       <c r="S22" s="11">
-        <v>-74</v>
+        <v>-94</v>
       </c>
       <c r="T22" s="11"/>
       <c r="U22" s="7"/>
@@ -2401,7 +2401,7 @@
         <v>-53</v>
       </c>
       <c r="S23" s="11">
-        <v>-78</v>
+        <v>-98</v>
       </c>
       <c r="T23" s="11"/>
       <c r="U23" s="7"/>
@@ -2478,7 +2478,7 @@
         <v>-62</v>
       </c>
       <c r="S24" s="11">
-        <v>-87</v>
+        <v>-108</v>
       </c>
       <c r="T24" s="11"/>
       <c r="U24" s="7"/>
@@ -2555,7 +2555,7 @@
         <v>-62</v>
       </c>
       <c r="S25" s="11">
-        <v>-93</v>
+        <v>-114</v>
       </c>
       <c r="T25" s="11"/>
       <c r="U25" s="7"/>
